--- a/journal_JJWAN.xlsx
+++ b/journal_JJWAN.xlsx
@@ -5,24 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\m306_groupeJJWAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dede\Desktop\m306_groupeJJWAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
     <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
+    <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Journal de bord projet M306</t>
   </si>
@@ -388,6 +390,171 @@
 Nelson : Selection d'adresse, Affichage des points
 André : Formulaire Windows, Récupération de la db sur C#, Envoie des données sur la db
 Walter : Connexion à la base de données, Récupération de la db sur C#, Envoie des données sur la db</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEROULEMENT DE LA JOURNEE : </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( comment avance le projet ?, Le projet est-il freiné ou bloqué, pourquoi ?, Comment surmonter les difficultés ? Argumenterzvos choix )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Présentation des test par la prof (20 min)
+André: Modification des données dans la base avec MysqlClient (45 min), insertion des données dans la base de donnée avec MysqlClient (45 min) et suppression de donnée dans la basse de donnée avec MysqlClient (45 min)
+Nelson et Walter : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Debugging (toute la'apres midi) de la version de test de Mme. Terrier, marche pas BLOQUANT
+J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ohnny: 40min debug apache et over sur les points (reste du temps)
+Jorge : 40min recuperation de la base et affichage </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OBJECTIFS DE LA JOURNEE : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>( à faire en début de journée )
+Jorge et Johnny : Affichage de position, Affichage de pop up, Récupéré depuis la base de donnee
+Nelson + Walter : Resolution du probleme d'affichage de la map (erreur 418)
+André : Modification des données dans la basse de données, modification des données et suppression des données</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BILAN DE LA JOURNEE :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( vos satisfactions, vos idées pour la prochaine fois )
+On arrive pas a faire fonctionner la map</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 02.03.2020
+Elèves présents :  Walter, André, Nelson, Johnny, Jorge
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMATIONS GENERALES
+Date : 09.03.2020
+Elèves présents :  Walter, André, Nelson, Johnny, Jorge
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OBJECTIFS DE LA JOURNEE : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>( à faire en début de journée )
+Jorge + Johnny : Affichage de position, Affichage de pop up, Récupéré depuis la base de donnee
+Nelson + André : finaliser l'application C#
+Walter : Réalisation du plan de tests
+Equipe : Documentation technique</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DEROULEMENT DE LA JOURNEE : </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">( comment avance le projet ?, Le projet est-il freiné ou bloqué, pourquoi ?, Comment surmonter les difficultés ? Argumenterz vos choix )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+André et Nelson : Tranformation des points en adresse, ajout des points dans la base et récupération de points depuis la base (pour affichage).
+Walter : réalisation du plan de tests et documentation technique</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ohnny: toute l'après midi, continuaton de l'application (affichage des évenements depuis la base sur les points)
+Jorge : moitié de l'après midi : continuation avec Johnny, autre moitié : documentation technique et plan de test
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BILAN DE LA JOURNEE :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( vos satisfactions, vos idées pour la prochaine fois )
+Plan de tests terminé.
+Documentation technique à continuer
+Phase de tests
+Finir de mettre les images en place (site WEB)</t>
     </r>
   </si>
 </sst>
@@ -705,24 +872,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +882,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -969,10 +1136,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1011,40 +1178,40 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2067,10 +2234,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2109,40 +2276,40 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3154,7 +3321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
@@ -3165,10 +3332,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3207,40 +3374,40 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4252,221 +4419,221 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" style="18" customWidth="1"/>
-    <col min="3" max="256" width="11.42578125" style="18"/>
-    <col min="257" max="257" width="40.7109375" style="18" customWidth="1"/>
-    <col min="258" max="258" width="44.85546875" style="18" customWidth="1"/>
-    <col min="259" max="512" width="11.42578125" style="18"/>
-    <col min="513" max="513" width="40.7109375" style="18" customWidth="1"/>
-    <col min="514" max="514" width="44.85546875" style="18" customWidth="1"/>
-    <col min="515" max="768" width="11.42578125" style="18"/>
-    <col min="769" max="769" width="40.7109375" style="18" customWidth="1"/>
-    <col min="770" max="770" width="44.85546875" style="18" customWidth="1"/>
-    <col min="771" max="1024" width="11.42578125" style="18"/>
-    <col min="1025" max="1025" width="40.7109375" style="18" customWidth="1"/>
-    <col min="1026" max="1026" width="44.85546875" style="18" customWidth="1"/>
-    <col min="1027" max="1280" width="11.42578125" style="18"/>
-    <col min="1281" max="1281" width="40.7109375" style="18" customWidth="1"/>
-    <col min="1282" max="1282" width="44.85546875" style="18" customWidth="1"/>
-    <col min="1283" max="1536" width="11.42578125" style="18"/>
-    <col min="1537" max="1537" width="40.7109375" style="18" customWidth="1"/>
-    <col min="1538" max="1538" width="44.85546875" style="18" customWidth="1"/>
-    <col min="1539" max="1792" width="11.42578125" style="18"/>
-    <col min="1793" max="1793" width="40.7109375" style="18" customWidth="1"/>
-    <col min="1794" max="1794" width="44.85546875" style="18" customWidth="1"/>
-    <col min="1795" max="2048" width="11.42578125" style="18"/>
-    <col min="2049" max="2049" width="40.7109375" style="18" customWidth="1"/>
-    <col min="2050" max="2050" width="44.85546875" style="18" customWidth="1"/>
-    <col min="2051" max="2304" width="11.42578125" style="18"/>
-    <col min="2305" max="2305" width="40.7109375" style="18" customWidth="1"/>
-    <col min="2306" max="2306" width="44.85546875" style="18" customWidth="1"/>
-    <col min="2307" max="2560" width="11.42578125" style="18"/>
-    <col min="2561" max="2561" width="40.7109375" style="18" customWidth="1"/>
-    <col min="2562" max="2562" width="44.85546875" style="18" customWidth="1"/>
-    <col min="2563" max="2816" width="11.42578125" style="18"/>
-    <col min="2817" max="2817" width="40.7109375" style="18" customWidth="1"/>
-    <col min="2818" max="2818" width="44.85546875" style="18" customWidth="1"/>
-    <col min="2819" max="3072" width="11.42578125" style="18"/>
-    <col min="3073" max="3073" width="40.7109375" style="18" customWidth="1"/>
-    <col min="3074" max="3074" width="44.85546875" style="18" customWidth="1"/>
-    <col min="3075" max="3328" width="11.42578125" style="18"/>
-    <col min="3329" max="3329" width="40.7109375" style="18" customWidth="1"/>
-    <col min="3330" max="3330" width="44.85546875" style="18" customWidth="1"/>
-    <col min="3331" max="3584" width="11.42578125" style="18"/>
-    <col min="3585" max="3585" width="40.7109375" style="18" customWidth="1"/>
-    <col min="3586" max="3586" width="44.85546875" style="18" customWidth="1"/>
-    <col min="3587" max="3840" width="11.42578125" style="18"/>
-    <col min="3841" max="3841" width="40.7109375" style="18" customWidth="1"/>
-    <col min="3842" max="3842" width="44.85546875" style="18" customWidth="1"/>
-    <col min="3843" max="4096" width="11.42578125" style="18"/>
-    <col min="4097" max="4097" width="40.7109375" style="18" customWidth="1"/>
-    <col min="4098" max="4098" width="44.85546875" style="18" customWidth="1"/>
-    <col min="4099" max="4352" width="11.42578125" style="18"/>
-    <col min="4353" max="4353" width="40.7109375" style="18" customWidth="1"/>
-    <col min="4354" max="4354" width="44.85546875" style="18" customWidth="1"/>
-    <col min="4355" max="4608" width="11.42578125" style="18"/>
-    <col min="4609" max="4609" width="40.7109375" style="18" customWidth="1"/>
-    <col min="4610" max="4610" width="44.85546875" style="18" customWidth="1"/>
-    <col min="4611" max="4864" width="11.42578125" style="18"/>
-    <col min="4865" max="4865" width="40.7109375" style="18" customWidth="1"/>
-    <col min="4866" max="4866" width="44.85546875" style="18" customWidth="1"/>
-    <col min="4867" max="5120" width="11.42578125" style="18"/>
-    <col min="5121" max="5121" width="40.7109375" style="18" customWidth="1"/>
-    <col min="5122" max="5122" width="44.85546875" style="18" customWidth="1"/>
-    <col min="5123" max="5376" width="11.42578125" style="18"/>
-    <col min="5377" max="5377" width="40.7109375" style="18" customWidth="1"/>
-    <col min="5378" max="5378" width="44.85546875" style="18" customWidth="1"/>
-    <col min="5379" max="5632" width="11.42578125" style="18"/>
-    <col min="5633" max="5633" width="40.7109375" style="18" customWidth="1"/>
-    <col min="5634" max="5634" width="44.85546875" style="18" customWidth="1"/>
-    <col min="5635" max="5888" width="11.42578125" style="18"/>
-    <col min="5889" max="5889" width="40.7109375" style="18" customWidth="1"/>
-    <col min="5890" max="5890" width="44.85546875" style="18" customWidth="1"/>
-    <col min="5891" max="6144" width="11.42578125" style="18"/>
-    <col min="6145" max="6145" width="40.7109375" style="18" customWidth="1"/>
-    <col min="6146" max="6146" width="44.85546875" style="18" customWidth="1"/>
-    <col min="6147" max="6400" width="11.42578125" style="18"/>
-    <col min="6401" max="6401" width="40.7109375" style="18" customWidth="1"/>
-    <col min="6402" max="6402" width="44.85546875" style="18" customWidth="1"/>
-    <col min="6403" max="6656" width="11.42578125" style="18"/>
-    <col min="6657" max="6657" width="40.7109375" style="18" customWidth="1"/>
-    <col min="6658" max="6658" width="44.85546875" style="18" customWidth="1"/>
-    <col min="6659" max="6912" width="11.42578125" style="18"/>
-    <col min="6913" max="6913" width="40.7109375" style="18" customWidth="1"/>
-    <col min="6914" max="6914" width="44.85546875" style="18" customWidth="1"/>
-    <col min="6915" max="7168" width="11.42578125" style="18"/>
-    <col min="7169" max="7169" width="40.7109375" style="18" customWidth="1"/>
-    <col min="7170" max="7170" width="44.85546875" style="18" customWidth="1"/>
-    <col min="7171" max="7424" width="11.42578125" style="18"/>
-    <col min="7425" max="7425" width="40.7109375" style="18" customWidth="1"/>
-    <col min="7426" max="7426" width="44.85546875" style="18" customWidth="1"/>
-    <col min="7427" max="7680" width="11.42578125" style="18"/>
-    <col min="7681" max="7681" width="40.7109375" style="18" customWidth="1"/>
-    <col min="7682" max="7682" width="44.85546875" style="18" customWidth="1"/>
-    <col min="7683" max="7936" width="11.42578125" style="18"/>
-    <col min="7937" max="7937" width="40.7109375" style="18" customWidth="1"/>
-    <col min="7938" max="7938" width="44.85546875" style="18" customWidth="1"/>
-    <col min="7939" max="8192" width="11.42578125" style="18"/>
-    <col min="8193" max="8193" width="40.7109375" style="18" customWidth="1"/>
-    <col min="8194" max="8194" width="44.85546875" style="18" customWidth="1"/>
-    <col min="8195" max="8448" width="11.42578125" style="18"/>
-    <col min="8449" max="8449" width="40.7109375" style="18" customWidth="1"/>
-    <col min="8450" max="8450" width="44.85546875" style="18" customWidth="1"/>
-    <col min="8451" max="8704" width="11.42578125" style="18"/>
-    <col min="8705" max="8705" width="40.7109375" style="18" customWidth="1"/>
-    <col min="8706" max="8706" width="44.85546875" style="18" customWidth="1"/>
-    <col min="8707" max="8960" width="11.42578125" style="18"/>
-    <col min="8961" max="8961" width="40.7109375" style="18" customWidth="1"/>
-    <col min="8962" max="8962" width="44.85546875" style="18" customWidth="1"/>
-    <col min="8963" max="9216" width="11.42578125" style="18"/>
-    <col min="9217" max="9217" width="40.7109375" style="18" customWidth="1"/>
-    <col min="9218" max="9218" width="44.85546875" style="18" customWidth="1"/>
-    <col min="9219" max="9472" width="11.42578125" style="18"/>
-    <col min="9473" max="9473" width="40.7109375" style="18" customWidth="1"/>
-    <col min="9474" max="9474" width="44.85546875" style="18" customWidth="1"/>
-    <col min="9475" max="9728" width="11.42578125" style="18"/>
-    <col min="9729" max="9729" width="40.7109375" style="18" customWidth="1"/>
-    <col min="9730" max="9730" width="44.85546875" style="18" customWidth="1"/>
-    <col min="9731" max="9984" width="11.42578125" style="18"/>
-    <col min="9985" max="9985" width="40.7109375" style="18" customWidth="1"/>
-    <col min="9986" max="9986" width="44.85546875" style="18" customWidth="1"/>
-    <col min="9987" max="10240" width="11.42578125" style="18"/>
-    <col min="10241" max="10241" width="40.7109375" style="18" customWidth="1"/>
-    <col min="10242" max="10242" width="44.85546875" style="18" customWidth="1"/>
-    <col min="10243" max="10496" width="11.42578125" style="18"/>
-    <col min="10497" max="10497" width="40.7109375" style="18" customWidth="1"/>
-    <col min="10498" max="10498" width="44.85546875" style="18" customWidth="1"/>
-    <col min="10499" max="10752" width="11.42578125" style="18"/>
-    <col min="10753" max="10753" width="40.7109375" style="18" customWidth="1"/>
-    <col min="10754" max="10754" width="44.85546875" style="18" customWidth="1"/>
-    <col min="10755" max="11008" width="11.42578125" style="18"/>
-    <col min="11009" max="11009" width="40.7109375" style="18" customWidth="1"/>
-    <col min="11010" max="11010" width="44.85546875" style="18" customWidth="1"/>
-    <col min="11011" max="11264" width="11.42578125" style="18"/>
-    <col min="11265" max="11265" width="40.7109375" style="18" customWidth="1"/>
-    <col min="11266" max="11266" width="44.85546875" style="18" customWidth="1"/>
-    <col min="11267" max="11520" width="11.42578125" style="18"/>
-    <col min="11521" max="11521" width="40.7109375" style="18" customWidth="1"/>
-    <col min="11522" max="11522" width="44.85546875" style="18" customWidth="1"/>
-    <col min="11523" max="11776" width="11.42578125" style="18"/>
-    <col min="11777" max="11777" width="40.7109375" style="18" customWidth="1"/>
-    <col min="11778" max="11778" width="44.85546875" style="18" customWidth="1"/>
-    <col min="11779" max="12032" width="11.42578125" style="18"/>
-    <col min="12033" max="12033" width="40.7109375" style="18" customWidth="1"/>
-    <col min="12034" max="12034" width="44.85546875" style="18" customWidth="1"/>
-    <col min="12035" max="12288" width="11.42578125" style="18"/>
-    <col min="12289" max="12289" width="40.7109375" style="18" customWidth="1"/>
-    <col min="12290" max="12290" width="44.85546875" style="18" customWidth="1"/>
-    <col min="12291" max="12544" width="11.42578125" style="18"/>
-    <col min="12545" max="12545" width="40.7109375" style="18" customWidth="1"/>
-    <col min="12546" max="12546" width="44.85546875" style="18" customWidth="1"/>
-    <col min="12547" max="12800" width="11.42578125" style="18"/>
-    <col min="12801" max="12801" width="40.7109375" style="18" customWidth="1"/>
-    <col min="12802" max="12802" width="44.85546875" style="18" customWidth="1"/>
-    <col min="12803" max="13056" width="11.42578125" style="18"/>
-    <col min="13057" max="13057" width="40.7109375" style="18" customWidth="1"/>
-    <col min="13058" max="13058" width="44.85546875" style="18" customWidth="1"/>
-    <col min="13059" max="13312" width="11.42578125" style="18"/>
-    <col min="13313" max="13313" width="40.7109375" style="18" customWidth="1"/>
-    <col min="13314" max="13314" width="44.85546875" style="18" customWidth="1"/>
-    <col min="13315" max="13568" width="11.42578125" style="18"/>
-    <col min="13569" max="13569" width="40.7109375" style="18" customWidth="1"/>
-    <col min="13570" max="13570" width="44.85546875" style="18" customWidth="1"/>
-    <col min="13571" max="13824" width="11.42578125" style="18"/>
-    <col min="13825" max="13825" width="40.7109375" style="18" customWidth="1"/>
-    <col min="13826" max="13826" width="44.85546875" style="18" customWidth="1"/>
-    <col min="13827" max="14080" width="11.42578125" style="18"/>
-    <col min="14081" max="14081" width="40.7109375" style="18" customWidth="1"/>
-    <col min="14082" max="14082" width="44.85546875" style="18" customWidth="1"/>
-    <col min="14083" max="14336" width="11.42578125" style="18"/>
-    <col min="14337" max="14337" width="40.7109375" style="18" customWidth="1"/>
-    <col min="14338" max="14338" width="44.85546875" style="18" customWidth="1"/>
-    <col min="14339" max="14592" width="11.42578125" style="18"/>
-    <col min="14593" max="14593" width="40.7109375" style="18" customWidth="1"/>
-    <col min="14594" max="14594" width="44.85546875" style="18" customWidth="1"/>
-    <col min="14595" max="14848" width="11.42578125" style="18"/>
-    <col min="14849" max="14849" width="40.7109375" style="18" customWidth="1"/>
-    <col min="14850" max="14850" width="44.85546875" style="18" customWidth="1"/>
-    <col min="14851" max="15104" width="11.42578125" style="18"/>
-    <col min="15105" max="15105" width="40.7109375" style="18" customWidth="1"/>
-    <col min="15106" max="15106" width="44.85546875" style="18" customWidth="1"/>
-    <col min="15107" max="15360" width="11.42578125" style="18"/>
-    <col min="15361" max="15361" width="40.7109375" style="18" customWidth="1"/>
-    <col min="15362" max="15362" width="44.85546875" style="18" customWidth="1"/>
-    <col min="15363" max="15616" width="11.42578125" style="18"/>
-    <col min="15617" max="15617" width="40.7109375" style="18" customWidth="1"/>
-    <col min="15618" max="15618" width="44.85546875" style="18" customWidth="1"/>
-    <col min="15619" max="15872" width="11.42578125" style="18"/>
-    <col min="15873" max="15873" width="40.7109375" style="18" customWidth="1"/>
-    <col min="15874" max="15874" width="44.85546875" style="18" customWidth="1"/>
-    <col min="15875" max="16128" width="11.42578125" style="18"/>
-    <col min="16129" max="16129" width="40.7109375" style="18" customWidth="1"/>
-    <col min="16130" max="16130" width="44.85546875" style="18" customWidth="1"/>
-    <col min="16131" max="16384" width="11.42578125" style="18"/>
+    <col min="1" max="1" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3" max="256" width="11.42578125" style="10"/>
+    <col min="257" max="257" width="40.7109375" style="10" customWidth="1"/>
+    <col min="258" max="258" width="44.85546875" style="10" customWidth="1"/>
+    <col min="259" max="512" width="11.42578125" style="10"/>
+    <col min="513" max="513" width="40.7109375" style="10" customWidth="1"/>
+    <col min="514" max="514" width="44.85546875" style="10" customWidth="1"/>
+    <col min="515" max="768" width="11.42578125" style="10"/>
+    <col min="769" max="769" width="40.7109375" style="10" customWidth="1"/>
+    <col min="770" max="770" width="44.85546875" style="10" customWidth="1"/>
+    <col min="771" max="1024" width="11.42578125" style="10"/>
+    <col min="1025" max="1025" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1026" max="1026" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1027" max="1280" width="11.42578125" style="10"/>
+    <col min="1281" max="1281" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1282" max="1282" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1283" max="1536" width="11.42578125" style="10"/>
+    <col min="1537" max="1537" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1538" max="1538" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1539" max="1792" width="11.42578125" style="10"/>
+    <col min="1793" max="1793" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1794" max="1794" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1795" max="2048" width="11.42578125" style="10"/>
+    <col min="2049" max="2049" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2050" max="2050" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2051" max="2304" width="11.42578125" style="10"/>
+    <col min="2305" max="2305" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2306" max="2306" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2307" max="2560" width="11.42578125" style="10"/>
+    <col min="2561" max="2561" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2562" max="2562" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2563" max="2816" width="11.42578125" style="10"/>
+    <col min="2817" max="2817" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2818" max="2818" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2819" max="3072" width="11.42578125" style="10"/>
+    <col min="3073" max="3073" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3074" max="3074" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3075" max="3328" width="11.42578125" style="10"/>
+    <col min="3329" max="3329" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3330" max="3330" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3331" max="3584" width="11.42578125" style="10"/>
+    <col min="3585" max="3585" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3586" max="3586" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3587" max="3840" width="11.42578125" style="10"/>
+    <col min="3841" max="3841" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3842" max="3842" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3843" max="4096" width="11.42578125" style="10"/>
+    <col min="4097" max="4097" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4098" max="4098" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4099" max="4352" width="11.42578125" style="10"/>
+    <col min="4353" max="4353" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4354" max="4354" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4355" max="4608" width="11.42578125" style="10"/>
+    <col min="4609" max="4609" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4610" max="4610" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4611" max="4864" width="11.42578125" style="10"/>
+    <col min="4865" max="4865" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4866" max="4866" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4867" max="5120" width="11.42578125" style="10"/>
+    <col min="5121" max="5121" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5122" max="5122" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5123" max="5376" width="11.42578125" style="10"/>
+    <col min="5377" max="5377" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5378" max="5378" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5379" max="5632" width="11.42578125" style="10"/>
+    <col min="5633" max="5633" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5634" max="5634" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5635" max="5888" width="11.42578125" style="10"/>
+    <col min="5889" max="5889" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5890" max="5890" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5891" max="6144" width="11.42578125" style="10"/>
+    <col min="6145" max="6145" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6146" max="6146" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6147" max="6400" width="11.42578125" style="10"/>
+    <col min="6401" max="6401" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6402" max="6402" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6403" max="6656" width="11.42578125" style="10"/>
+    <col min="6657" max="6657" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6658" max="6658" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6659" max="6912" width="11.42578125" style="10"/>
+    <col min="6913" max="6913" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6914" max="6914" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6915" max="7168" width="11.42578125" style="10"/>
+    <col min="7169" max="7169" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7170" max="7170" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7171" max="7424" width="11.42578125" style="10"/>
+    <col min="7425" max="7425" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7426" max="7426" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7427" max="7680" width="11.42578125" style="10"/>
+    <col min="7681" max="7681" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7682" max="7682" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7683" max="7936" width="11.42578125" style="10"/>
+    <col min="7937" max="7937" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7938" max="7938" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7939" max="8192" width="11.42578125" style="10"/>
+    <col min="8193" max="8193" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8194" max="8194" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8195" max="8448" width="11.42578125" style="10"/>
+    <col min="8449" max="8449" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8450" max="8450" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8451" max="8704" width="11.42578125" style="10"/>
+    <col min="8705" max="8705" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8706" max="8706" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8707" max="8960" width="11.42578125" style="10"/>
+    <col min="8961" max="8961" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8962" max="8962" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8963" max="9216" width="11.42578125" style="10"/>
+    <col min="9217" max="9217" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9218" max="9218" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9219" max="9472" width="11.42578125" style="10"/>
+    <col min="9473" max="9473" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9474" max="9474" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9475" max="9728" width="11.42578125" style="10"/>
+    <col min="9729" max="9729" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9730" max="9730" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9731" max="9984" width="11.42578125" style="10"/>
+    <col min="9985" max="9985" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9986" max="9986" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9987" max="10240" width="11.42578125" style="10"/>
+    <col min="10241" max="10241" width="40.7109375" style="10" customWidth="1"/>
+    <col min="10242" max="10242" width="44.85546875" style="10" customWidth="1"/>
+    <col min="10243" max="10496" width="11.42578125" style="10"/>
+    <col min="10497" max="10497" width="40.7109375" style="10" customWidth="1"/>
+    <col min="10498" max="10498" width="44.85546875" style="10" customWidth="1"/>
+    <col min="10499" max="10752" width="11.42578125" style="10"/>
+    <col min="10753" max="10753" width="40.7109375" style="10" customWidth="1"/>
+    <col min="10754" max="10754" width="44.85546875" style="10" customWidth="1"/>
+    <col min="10755" max="11008" width="11.42578125" style="10"/>
+    <col min="11009" max="11009" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11010" max="11010" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11011" max="11264" width="11.42578125" style="10"/>
+    <col min="11265" max="11265" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11266" max="11266" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11267" max="11520" width="11.42578125" style="10"/>
+    <col min="11521" max="11521" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11522" max="11522" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11523" max="11776" width="11.42578125" style="10"/>
+    <col min="11777" max="11777" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11778" max="11778" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11779" max="12032" width="11.42578125" style="10"/>
+    <col min="12033" max="12033" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12034" max="12034" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12035" max="12288" width="11.42578125" style="10"/>
+    <col min="12289" max="12289" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12290" max="12290" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12291" max="12544" width="11.42578125" style="10"/>
+    <col min="12545" max="12545" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12546" max="12546" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12547" max="12800" width="11.42578125" style="10"/>
+    <col min="12801" max="12801" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12802" max="12802" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12803" max="13056" width="11.42578125" style="10"/>
+    <col min="13057" max="13057" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13058" max="13058" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13059" max="13312" width="11.42578125" style="10"/>
+    <col min="13313" max="13313" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13314" max="13314" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13315" max="13568" width="11.42578125" style="10"/>
+    <col min="13569" max="13569" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13570" max="13570" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13571" max="13824" width="11.42578125" style="10"/>
+    <col min="13825" max="13825" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13826" max="13826" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13827" max="14080" width="11.42578125" style="10"/>
+    <col min="14081" max="14081" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14082" max="14082" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14083" max="14336" width="11.42578125" style="10"/>
+    <col min="14337" max="14337" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14338" max="14338" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14339" max="14592" width="11.42578125" style="10"/>
+    <col min="14593" max="14593" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14594" max="14594" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14595" max="14848" width="11.42578125" style="10"/>
+    <col min="14849" max="14849" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14850" max="14850" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14851" max="15104" width="11.42578125" style="10"/>
+    <col min="15105" max="15105" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15106" max="15106" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15107" max="15360" width="11.42578125" style="10"/>
+    <col min="15361" max="15361" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15362" max="15362" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15363" max="15616" width="11.42578125" style="10"/>
+    <col min="15617" max="15617" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15618" max="15618" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15619" max="15872" width="11.42578125" style="10"/>
+    <col min="15873" max="15873" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15874" max="15874" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15875" max="16128" width="11.42578125" style="10"/>
+    <col min="16129" max="16129" width="40.7109375" style="10" customWidth="1"/>
+    <col min="16130" max="16130" width="44.85546875" style="10" customWidth="1"/>
+    <col min="16131" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="16" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4482,7 +4649,7 @@
       </c>
       <c r="B5" s="22"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>22</v>
       </c>
@@ -4505,4 +4672,521 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3" max="256" width="11.42578125" style="10"/>
+    <col min="257" max="257" width="40.7109375" style="10" customWidth="1"/>
+    <col min="258" max="258" width="44.85546875" style="10" customWidth="1"/>
+    <col min="259" max="512" width="11.42578125" style="10"/>
+    <col min="513" max="513" width="40.7109375" style="10" customWidth="1"/>
+    <col min="514" max="514" width="44.85546875" style="10" customWidth="1"/>
+    <col min="515" max="768" width="11.42578125" style="10"/>
+    <col min="769" max="769" width="40.7109375" style="10" customWidth="1"/>
+    <col min="770" max="770" width="44.85546875" style="10" customWidth="1"/>
+    <col min="771" max="1024" width="11.42578125" style="10"/>
+    <col min="1025" max="1025" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1026" max="1026" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1027" max="1280" width="11.42578125" style="10"/>
+    <col min="1281" max="1281" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1282" max="1282" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1283" max="1536" width="11.42578125" style="10"/>
+    <col min="1537" max="1537" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1538" max="1538" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1539" max="1792" width="11.42578125" style="10"/>
+    <col min="1793" max="1793" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1794" max="1794" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1795" max="2048" width="11.42578125" style="10"/>
+    <col min="2049" max="2049" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2050" max="2050" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2051" max="2304" width="11.42578125" style="10"/>
+    <col min="2305" max="2305" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2306" max="2306" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2307" max="2560" width="11.42578125" style="10"/>
+    <col min="2561" max="2561" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2562" max="2562" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2563" max="2816" width="11.42578125" style="10"/>
+    <col min="2817" max="2817" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2818" max="2818" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2819" max="3072" width="11.42578125" style="10"/>
+    <col min="3073" max="3073" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3074" max="3074" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3075" max="3328" width="11.42578125" style="10"/>
+    <col min="3329" max="3329" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3330" max="3330" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3331" max="3584" width="11.42578125" style="10"/>
+    <col min="3585" max="3585" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3586" max="3586" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3587" max="3840" width="11.42578125" style="10"/>
+    <col min="3841" max="3841" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3842" max="3842" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3843" max="4096" width="11.42578125" style="10"/>
+    <col min="4097" max="4097" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4098" max="4098" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4099" max="4352" width="11.42578125" style="10"/>
+    <col min="4353" max="4353" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4354" max="4354" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4355" max="4608" width="11.42578125" style="10"/>
+    <col min="4609" max="4609" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4610" max="4610" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4611" max="4864" width="11.42578125" style="10"/>
+    <col min="4865" max="4865" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4866" max="4866" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4867" max="5120" width="11.42578125" style="10"/>
+    <col min="5121" max="5121" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5122" max="5122" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5123" max="5376" width="11.42578125" style="10"/>
+    <col min="5377" max="5377" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5378" max="5378" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5379" max="5632" width="11.42578125" style="10"/>
+    <col min="5633" max="5633" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5634" max="5634" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5635" max="5888" width="11.42578125" style="10"/>
+    <col min="5889" max="5889" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5890" max="5890" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5891" max="6144" width="11.42578125" style="10"/>
+    <col min="6145" max="6145" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6146" max="6146" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6147" max="6400" width="11.42578125" style="10"/>
+    <col min="6401" max="6401" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6402" max="6402" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6403" max="6656" width="11.42578125" style="10"/>
+    <col min="6657" max="6657" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6658" max="6658" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6659" max="6912" width="11.42578125" style="10"/>
+    <col min="6913" max="6913" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6914" max="6914" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6915" max="7168" width="11.42578125" style="10"/>
+    <col min="7169" max="7169" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7170" max="7170" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7171" max="7424" width="11.42578125" style="10"/>
+    <col min="7425" max="7425" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7426" max="7426" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7427" max="7680" width="11.42578125" style="10"/>
+    <col min="7681" max="7681" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7682" max="7682" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7683" max="7936" width="11.42578125" style="10"/>
+    <col min="7937" max="7937" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7938" max="7938" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7939" max="8192" width="11.42578125" style="10"/>
+    <col min="8193" max="8193" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8194" max="8194" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8195" max="8448" width="11.42578125" style="10"/>
+    <col min="8449" max="8449" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8450" max="8450" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8451" max="8704" width="11.42578125" style="10"/>
+    <col min="8705" max="8705" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8706" max="8706" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8707" max="8960" width="11.42578125" style="10"/>
+    <col min="8961" max="8961" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8962" max="8962" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8963" max="9216" width="11.42578125" style="10"/>
+    <col min="9217" max="9217" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9218" max="9218" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9219" max="9472" width="11.42578125" style="10"/>
+    <col min="9473" max="9473" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9474" max="9474" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9475" max="9728" width="11.42578125" style="10"/>
+    <col min="9729" max="9729" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9730" max="9730" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9731" max="9984" width="11.42578125" style="10"/>
+    <col min="9985" max="9985" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9986" max="9986" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9987" max="10240" width="11.42578125" style="10"/>
+    <col min="10241" max="10241" width="40.7109375" style="10" customWidth="1"/>
+    <col min="10242" max="10242" width="44.85546875" style="10" customWidth="1"/>
+    <col min="10243" max="10496" width="11.42578125" style="10"/>
+    <col min="10497" max="10497" width="40.7109375" style="10" customWidth="1"/>
+    <col min="10498" max="10498" width="44.85546875" style="10" customWidth="1"/>
+    <col min="10499" max="10752" width="11.42578125" style="10"/>
+    <col min="10753" max="10753" width="40.7109375" style="10" customWidth="1"/>
+    <col min="10754" max="10754" width="44.85546875" style="10" customWidth="1"/>
+    <col min="10755" max="11008" width="11.42578125" style="10"/>
+    <col min="11009" max="11009" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11010" max="11010" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11011" max="11264" width="11.42578125" style="10"/>
+    <col min="11265" max="11265" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11266" max="11266" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11267" max="11520" width="11.42578125" style="10"/>
+    <col min="11521" max="11521" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11522" max="11522" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11523" max="11776" width="11.42578125" style="10"/>
+    <col min="11777" max="11777" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11778" max="11778" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11779" max="12032" width="11.42578125" style="10"/>
+    <col min="12033" max="12033" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12034" max="12034" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12035" max="12288" width="11.42578125" style="10"/>
+    <col min="12289" max="12289" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12290" max="12290" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12291" max="12544" width="11.42578125" style="10"/>
+    <col min="12545" max="12545" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12546" max="12546" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12547" max="12800" width="11.42578125" style="10"/>
+    <col min="12801" max="12801" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12802" max="12802" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12803" max="13056" width="11.42578125" style="10"/>
+    <col min="13057" max="13057" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13058" max="13058" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13059" max="13312" width="11.42578125" style="10"/>
+    <col min="13313" max="13313" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13314" max="13314" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13315" max="13568" width="11.42578125" style="10"/>
+    <col min="13569" max="13569" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13570" max="13570" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13571" max="13824" width="11.42578125" style="10"/>
+    <col min="13825" max="13825" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13826" max="13826" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13827" max="14080" width="11.42578125" style="10"/>
+    <col min="14081" max="14081" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14082" max="14082" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14083" max="14336" width="11.42578125" style="10"/>
+    <col min="14337" max="14337" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14338" max="14338" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14339" max="14592" width="11.42578125" style="10"/>
+    <col min="14593" max="14593" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14594" max="14594" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14595" max="14848" width="11.42578125" style="10"/>
+    <col min="14849" max="14849" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14850" max="14850" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14851" max="15104" width="11.42578125" style="10"/>
+    <col min="15105" max="15105" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15106" max="15106" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15107" max="15360" width="11.42578125" style="10"/>
+    <col min="15361" max="15361" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15362" max="15362" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15363" max="15616" width="11.42578125" style="10"/>
+    <col min="15617" max="15617" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15618" max="15618" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15619" max="15872" width="11.42578125" style="10"/>
+    <col min="15873" max="15873" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15874" max="15874" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15875" max="16128" width="11.42578125" style="10"/>
+    <col min="16129" max="16129" width="40.7109375" style="10" customWidth="1"/>
+    <col min="16130" max="16130" width="44.85546875" style="10" customWidth="1"/>
+    <col min="16131" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="22"/>
+    </row>
+    <row r="6" spans="1:2" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3" max="256" width="11.42578125" style="10"/>
+    <col min="257" max="257" width="40.7109375" style="10" customWidth="1"/>
+    <col min="258" max="258" width="44.85546875" style="10" customWidth="1"/>
+    <col min="259" max="512" width="11.42578125" style="10"/>
+    <col min="513" max="513" width="40.7109375" style="10" customWidth="1"/>
+    <col min="514" max="514" width="44.85546875" style="10" customWidth="1"/>
+    <col min="515" max="768" width="11.42578125" style="10"/>
+    <col min="769" max="769" width="40.7109375" style="10" customWidth="1"/>
+    <col min="770" max="770" width="44.85546875" style="10" customWidth="1"/>
+    <col min="771" max="1024" width="11.42578125" style="10"/>
+    <col min="1025" max="1025" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1026" max="1026" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1027" max="1280" width="11.42578125" style="10"/>
+    <col min="1281" max="1281" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1282" max="1282" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1283" max="1536" width="11.42578125" style="10"/>
+    <col min="1537" max="1537" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1538" max="1538" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1539" max="1792" width="11.42578125" style="10"/>
+    <col min="1793" max="1793" width="40.7109375" style="10" customWidth="1"/>
+    <col min="1794" max="1794" width="44.85546875" style="10" customWidth="1"/>
+    <col min="1795" max="2048" width="11.42578125" style="10"/>
+    <col min="2049" max="2049" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2050" max="2050" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2051" max="2304" width="11.42578125" style="10"/>
+    <col min="2305" max="2305" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2306" max="2306" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2307" max="2560" width="11.42578125" style="10"/>
+    <col min="2561" max="2561" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2562" max="2562" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2563" max="2816" width="11.42578125" style="10"/>
+    <col min="2817" max="2817" width="40.7109375" style="10" customWidth="1"/>
+    <col min="2818" max="2818" width="44.85546875" style="10" customWidth="1"/>
+    <col min="2819" max="3072" width="11.42578125" style="10"/>
+    <col min="3073" max="3073" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3074" max="3074" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3075" max="3328" width="11.42578125" style="10"/>
+    <col min="3329" max="3329" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3330" max="3330" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3331" max="3584" width="11.42578125" style="10"/>
+    <col min="3585" max="3585" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3586" max="3586" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3587" max="3840" width="11.42578125" style="10"/>
+    <col min="3841" max="3841" width="40.7109375" style="10" customWidth="1"/>
+    <col min="3842" max="3842" width="44.85546875" style="10" customWidth="1"/>
+    <col min="3843" max="4096" width="11.42578125" style="10"/>
+    <col min="4097" max="4097" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4098" max="4098" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4099" max="4352" width="11.42578125" style="10"/>
+    <col min="4353" max="4353" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4354" max="4354" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4355" max="4608" width="11.42578125" style="10"/>
+    <col min="4609" max="4609" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4610" max="4610" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4611" max="4864" width="11.42578125" style="10"/>
+    <col min="4865" max="4865" width="40.7109375" style="10" customWidth="1"/>
+    <col min="4866" max="4866" width="44.85546875" style="10" customWidth="1"/>
+    <col min="4867" max="5120" width="11.42578125" style="10"/>
+    <col min="5121" max="5121" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5122" max="5122" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5123" max="5376" width="11.42578125" style="10"/>
+    <col min="5377" max="5377" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5378" max="5378" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5379" max="5632" width="11.42578125" style="10"/>
+    <col min="5633" max="5633" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5634" max="5634" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5635" max="5888" width="11.42578125" style="10"/>
+    <col min="5889" max="5889" width="40.7109375" style="10" customWidth="1"/>
+    <col min="5890" max="5890" width="44.85546875" style="10" customWidth="1"/>
+    <col min="5891" max="6144" width="11.42578125" style="10"/>
+    <col min="6145" max="6145" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6146" max="6146" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6147" max="6400" width="11.42578125" style="10"/>
+    <col min="6401" max="6401" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6402" max="6402" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6403" max="6656" width="11.42578125" style="10"/>
+    <col min="6657" max="6657" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6658" max="6658" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6659" max="6912" width="11.42578125" style="10"/>
+    <col min="6913" max="6913" width="40.7109375" style="10" customWidth="1"/>
+    <col min="6914" max="6914" width="44.85546875" style="10" customWidth="1"/>
+    <col min="6915" max="7168" width="11.42578125" style="10"/>
+    <col min="7169" max="7169" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7170" max="7170" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7171" max="7424" width="11.42578125" style="10"/>
+    <col min="7425" max="7425" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7426" max="7426" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7427" max="7680" width="11.42578125" style="10"/>
+    <col min="7681" max="7681" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7682" max="7682" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7683" max="7936" width="11.42578125" style="10"/>
+    <col min="7937" max="7937" width="40.7109375" style="10" customWidth="1"/>
+    <col min="7938" max="7938" width="44.85546875" style="10" customWidth="1"/>
+    <col min="7939" max="8192" width="11.42578125" style="10"/>
+    <col min="8193" max="8193" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8194" max="8194" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8195" max="8448" width="11.42578125" style="10"/>
+    <col min="8449" max="8449" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8450" max="8450" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8451" max="8704" width="11.42578125" style="10"/>
+    <col min="8705" max="8705" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8706" max="8706" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8707" max="8960" width="11.42578125" style="10"/>
+    <col min="8961" max="8961" width="40.7109375" style="10" customWidth="1"/>
+    <col min="8962" max="8962" width="44.85546875" style="10" customWidth="1"/>
+    <col min="8963" max="9216" width="11.42578125" style="10"/>
+    <col min="9217" max="9217" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9218" max="9218" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9219" max="9472" width="11.42578125" style="10"/>
+    <col min="9473" max="9473" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9474" max="9474" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9475" max="9728" width="11.42578125" style="10"/>
+    <col min="9729" max="9729" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9730" max="9730" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9731" max="9984" width="11.42578125" style="10"/>
+    <col min="9985" max="9985" width="40.7109375" style="10" customWidth="1"/>
+    <col min="9986" max="9986" width="44.85546875" style="10" customWidth="1"/>
+    <col min="9987" max="10240" width="11.42578125" style="10"/>
+    <col min="10241" max="10241" width="40.7109375" style="10" customWidth="1"/>
+    <col min="10242" max="10242" width="44.85546875" style="10" customWidth="1"/>
+    <col min="10243" max="10496" width="11.42578125" style="10"/>
+    <col min="10497" max="10497" width="40.7109375" style="10" customWidth="1"/>
+    <col min="10498" max="10498" width="44.85546875" style="10" customWidth="1"/>
+    <col min="10499" max="10752" width="11.42578125" style="10"/>
+    <col min="10753" max="10753" width="40.7109375" style="10" customWidth="1"/>
+    <col min="10754" max="10754" width="44.85546875" style="10" customWidth="1"/>
+    <col min="10755" max="11008" width="11.42578125" style="10"/>
+    <col min="11009" max="11009" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11010" max="11010" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11011" max="11264" width="11.42578125" style="10"/>
+    <col min="11265" max="11265" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11266" max="11266" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11267" max="11520" width="11.42578125" style="10"/>
+    <col min="11521" max="11521" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11522" max="11522" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11523" max="11776" width="11.42578125" style="10"/>
+    <col min="11777" max="11777" width="40.7109375" style="10" customWidth="1"/>
+    <col min="11778" max="11778" width="44.85546875" style="10" customWidth="1"/>
+    <col min="11779" max="12032" width="11.42578125" style="10"/>
+    <col min="12033" max="12033" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12034" max="12034" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12035" max="12288" width="11.42578125" style="10"/>
+    <col min="12289" max="12289" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12290" max="12290" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12291" max="12544" width="11.42578125" style="10"/>
+    <col min="12545" max="12545" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12546" max="12546" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12547" max="12800" width="11.42578125" style="10"/>
+    <col min="12801" max="12801" width="40.7109375" style="10" customWidth="1"/>
+    <col min="12802" max="12802" width="44.85546875" style="10" customWidth="1"/>
+    <col min="12803" max="13056" width="11.42578125" style="10"/>
+    <col min="13057" max="13057" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13058" max="13058" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13059" max="13312" width="11.42578125" style="10"/>
+    <col min="13313" max="13313" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13314" max="13314" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13315" max="13568" width="11.42578125" style="10"/>
+    <col min="13569" max="13569" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13570" max="13570" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13571" max="13824" width="11.42578125" style="10"/>
+    <col min="13825" max="13825" width="40.7109375" style="10" customWidth="1"/>
+    <col min="13826" max="13826" width="44.85546875" style="10" customWidth="1"/>
+    <col min="13827" max="14080" width="11.42578125" style="10"/>
+    <col min="14081" max="14081" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14082" max="14082" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14083" max="14336" width="11.42578125" style="10"/>
+    <col min="14337" max="14337" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14338" max="14338" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14339" max="14592" width="11.42578125" style="10"/>
+    <col min="14593" max="14593" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14594" max="14594" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14595" max="14848" width="11.42578125" style="10"/>
+    <col min="14849" max="14849" width="40.7109375" style="10" customWidth="1"/>
+    <col min="14850" max="14850" width="44.85546875" style="10" customWidth="1"/>
+    <col min="14851" max="15104" width="11.42578125" style="10"/>
+    <col min="15105" max="15105" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15106" max="15106" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15107" max="15360" width="11.42578125" style="10"/>
+    <col min="15361" max="15361" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15362" max="15362" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15363" max="15616" width="11.42578125" style="10"/>
+    <col min="15617" max="15617" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15618" max="15618" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15619" max="15872" width="11.42578125" style="10"/>
+    <col min="15873" max="15873" width="40.7109375" style="10" customWidth="1"/>
+    <col min="15874" max="15874" width="44.85546875" style="10" customWidth="1"/>
+    <col min="15875" max="16128" width="11.42578125" style="10"/>
+    <col min="16129" max="16129" width="40.7109375" style="10" customWidth="1"/>
+    <col min="16130" max="16130" width="44.85546875" style="10" customWidth="1"/>
+    <col min="16131" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="8" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="3" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="22"/>
+    </row>
+    <row r="5" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="22"/>
+    </row>
+    <row r="6" spans="1:2" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>